--- a/biology/Botanique/Adenocalymma/Adenocalymma.xlsx
+++ b/biology/Botanique/Adenocalymma/Adenocalymma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Adenocalymma est un genre de plantes à fleurs dans la famille des Bignoniaceae. Ce genre du Nouveau Monde contient environ 50 espèces[1] de lianes, originaires des régions tropicales du Mexique (Basse-Californie)[2] jusqu'au nord de l'Argentine.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adenocalymma est un genre de plantes à fleurs dans la famille des Bignoniaceae. Ce genre du Nouveau Monde contient environ 50 espèces de lianes, originaires des régions tropicales du Mexique (Basse-Californie) jusqu'au nord de l'Argentine.
 Les espèces d’Adenocalymma sont les hôtes d'un papillon de nuit de la famille des Hepialidae, Trichophassus giganteus. Les plantes sont pollinisées par de nombreux animaux, dont des insectes, des oiseaux et des chauve-souris.
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Typonymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Adenocalymma vient du grec ἀδήν, génitif ἀδένος, "adên, adênos" (glande) et κάλυμμα, "kalymma" (enveloppe ou couverture, désigne le calice) fait référence aux glandes patelliformes présentes sur le calice de la plupart des espèces[1]. Il existe une variante orthographique, non valable, pour ce genre : Adenocalymna.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adenocalymma vient du grec ἀδήν, génitif ἀδένος, "adên, adênos" (glande) et κάλυμμα, "kalymma" (enveloppe ou couverture, désigne le calice) fait référence aux glandes patelliformes présentes sur le calice de la plupart des espèces. Il existe une variante orthographique, non valable, pour ce genre : Adenocalymna.
 </t>
         </is>
       </c>
@@ -543,11 +557,13 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique a été proposé par Martius dans une annotation d'espèce en 1839, puis validé et publié par Meisner une année plus tard dans Pl. Vasc. Gen. 1: 300; 2: 208. (1840)[1].
-Il existe quatre synonymes qui sont employés par certains auteurs: Memora; Odontotecoma; Pharseophora et Sampaiella[2],[3].
-Selon les auteurs et les différentes bases de données, Il y aurait entre 47[1] et 89[2],[4] espèces acceptées d'Adenocalymma.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique a été proposé par Martius dans une annotation d'espèce en 1839, puis validé et publié par Meisner une année plus tard dans Pl. Vasc. Gen. 1: 300; 2: 208. (1840).
+Il existe quatre synonymes qui sont employés par certains auteurs: Memora; Odontotecoma; Pharseophora et Sampaiella,.
+Selon les auteurs et les différentes bases de données, Il y aurait entre 47 et 89, espèces acceptées d'Adenocalymma.
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Adenocalymma est l'un des plus riches en espèces de la tribu (ou section) des Bignonieae. Ces plantes sont natives des régions tropicales américaines, du Mexique jusqu'au nord de l'Argentine[2]. Au Brésil, elles sont représentées dans plusieurs types de végétation, y compris les forêts tropicales, les forêts semi-décidues et les savanes[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Adenocalymma est l'un des plus riches en espèces de la tribu (ou section) des Bignonieae. Ces plantes sont natives des régions tropicales américaines, du Mexique jusqu'au nord de l'Argentine. Au Brésil, elles sont représentées dans plusieurs types de végétation, y compris les forêts tropicales, les forêts semi-décidues et les savanes.
 </t>
         </is>
       </c>
@@ -607,7 +625,9 @@
           <t>Listes d'espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Adenocalymma acutissimum
 Adenocalymma adenophorum
